--- a/pred_ohlcv/54_21/2019-10-31 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 MTL ohlcv.xlsx
@@ -860,7 +860,7 @@
         <v>-29001.37265398</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-29117.92015397999</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-29117.92015397999</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-29117.92015397999</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-29268.91905397999</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-35268.91905397999</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-35267.80905397999</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-37567.80905397999</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-37567.80905397999</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-37541.80905397999</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-37575.55635397999</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-37477.49625397999</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-37474.58655397999</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-52727.29395397999</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-51691.38525397999</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-38846.37815397999</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-38870.11605397999</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-35081.11605397999</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-41599.69959044999</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-42248.01049044999</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-42248.01049044999</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-42248.01049044999</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-41221.34670237999</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-41380.84370237999</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-45660.92610237999</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-45093.10629218999</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-44476.25169218999</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-43741.07989218998</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>100945.77687642</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>106964.84095462</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>106963.84093282</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>123265.50653282</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>121535.39093282</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>125525.06605315</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>194719.07098075</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>201611.36260699</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>219455.10400699</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>219455.10400699</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>207217.77410699</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>169674.23360699</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>163380.23460699</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>167503.47300699</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>167503.47300699</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>144654.01290699</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>140405.14890699</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>140405.14890699</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>148833.25870699</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>148536.31870699</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>145349.50580699</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>136081.88680699</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>153057.84560699</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>144621.59480699</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>147297.88310699</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-135996.47162103</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-31 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 MTL ohlcv.xlsx
@@ -1016,7 +1016,7 @@
         <v>-35268.91905397999</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-35267.80905397999</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-37567.80905397999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-37567.80905397999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-37541.80905397999</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-37575.55635397999</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-37477.49625397999</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-37474.58655397999</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-38445.29175397999</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-52727.29395397999</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-51691.38525397999</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-38846.37815397999</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-38846.37815397999</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-38869.11605397999</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-38869.11605397999</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-38869.11605397999</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-38869.11605397999</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-38870.11605397999</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-38870.11605397999</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-35081.11605397999</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-35079.01605397999</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-35080.01605397999</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-35079.01605397999</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-35097.52925397999</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-35097.52925397999</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-35096.42925397999</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-35097.42925397999</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-37212.32955397999</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-37748.66805397999</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-37134.05465397999</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-36095.84495397999</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-37142.25465397999</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-37142.25465397999</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-37141.13465397999</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-37142.13465397999</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-37149.13465397999</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-37148.13465397999</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-37149.13465397999</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-37029.47197455999</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-37036.47197455999</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-37037.47197455999</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-37037.47197455999</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-45093.10629218999</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-44476.25169218999</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-43741.07989218998</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>100945.77687642</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>106964.84095462</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>106963.84093282</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>123265.50653282</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>121535.39093282</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>125525.06605315</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>201611.36260699</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>219455.10400699</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>219455.10400699</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>207217.77410699</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>169674.23360699</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>163380.23460699</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>167503.47300699</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>167503.47300699</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>144654.01290699</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>140405.14890699</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>140405.14890699</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>145349.50580699</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-135996.47162103</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-121663.1337210301</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-120307.6720210301</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-120307.6720210301</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-122435.7820210301</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-122435.7820210301</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-122434.7820210301</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-125342.7617210301</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-124233.5432210301</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-124233.5432210301</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-124233.5432210301</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-121924.6738210301</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-122024.6738210301</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-122024.6738210301</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-122024.6738210301</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-122024.6738210301</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-73556.09872103007</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-113416.2465636301</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-113416.2465636301</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-113416.2465636301</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-113416.2465636301</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-101816.4654636301</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-124828.9865636301</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-124828.9865636301</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-124828.9865636301</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-124828.9865636301</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-124828.9865636301</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-124828.9865636301</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-122616.0749636301</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-120522.1524636301</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-121221.6927636301</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-121195.8114636301</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-121195.8114636301</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-127279.7391636301</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-120036.8517636301</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-118460.9197460001</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-118460.9197460001</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-126997.1447283701</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-125638.5899283701</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-125638.5899283701</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-123795.0992772101</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-120239.0531409001</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-120698.5983409</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-122267.3775409001</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-118392.05602837</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-119707.54502837</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-116108.7997283701</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-117628.0647283701</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-116336.7986283701</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-116310.5626283701</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-118690.5626283701</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-118378.5626283701</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-118378.5626283701</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-117229.0817283701</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-104757.0038283701</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-105244.6367283701</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-99786.49492837006</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-104485.73102837</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-101084.6293283701</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-99824.56202837006</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:8">
